--- a/results/grafs_trabajo_titulo.xlsx
+++ b/results/grafs_trabajo_titulo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16620" windowHeight="7710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16620" windowHeight="7710" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="10" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="lusearch-fix" sheetId="5" r:id="rId7"/>
     <sheet name="pmd" sheetId="7" r:id="rId8"/>
     <sheet name="xalan" sheetId="6" r:id="rId9"/>
+    <sheet name="JavaFX" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="27">
   <si>
     <t>fop</t>
   </si>
@@ -110,6 +111,9 @@
   </si>
   <si>
     <t>GC+C1+C2</t>
+  </si>
+  <si>
+    <t>JavaFX</t>
   </si>
 </sst>
 </file>
@@ -644,11 +648,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1704193952"/>
-        <c:axId val="-1704196672"/>
+        <c:axId val="-693492240"/>
+        <c:axId val="-693491152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1704193952"/>
+        <c:axId val="-693492240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -747,7 +751,7 @@
             <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1704196672"/>
+        <c:crossAx val="-693491152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -755,7 +759,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1704196672"/>
+        <c:axId val="-693491152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -867,7 +871,7 @@
             <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1704193952"/>
+        <c:crossAx val="-693492240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1791,7 +1795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
@@ -2028,6 +2032,768 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>795</v>
+      </c>
+      <c r="C2">
+        <v>795</v>
+      </c>
+      <c r="D2">
+        <v>804</v>
+      </c>
+      <c r="E2">
+        <v>716</v>
+      </c>
+      <c r="F2">
+        <v>821</v>
+      </c>
+      <c r="G2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>761</v>
+      </c>
+      <c r="C3">
+        <v>829</v>
+      </c>
+      <c r="D3">
+        <v>791</v>
+      </c>
+      <c r="E3">
+        <v>785</v>
+      </c>
+      <c r="F3">
+        <v>816</v>
+      </c>
+      <c r="G3">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>783</v>
+      </c>
+      <c r="C4">
+        <v>800</v>
+      </c>
+      <c r="D4">
+        <v>795</v>
+      </c>
+      <c r="E4">
+        <v>756</v>
+      </c>
+      <c r="F4">
+        <v>794</v>
+      </c>
+      <c r="G4">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>791</v>
+      </c>
+      <c r="C5">
+        <v>819</v>
+      </c>
+      <c r="D5">
+        <v>794</v>
+      </c>
+      <c r="E5">
+        <v>743</v>
+      </c>
+      <c r="F5">
+        <v>793</v>
+      </c>
+      <c r="G5">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>796</v>
+      </c>
+      <c r="C6">
+        <v>794</v>
+      </c>
+      <c r="D6">
+        <v>789</v>
+      </c>
+      <c r="E6">
+        <v>797</v>
+      </c>
+      <c r="F6">
+        <v>804</v>
+      </c>
+      <c r="G6">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>791</v>
+      </c>
+      <c r="C7">
+        <v>827</v>
+      </c>
+      <c r="D7">
+        <v>800</v>
+      </c>
+      <c r="E7">
+        <v>747</v>
+      </c>
+      <c r="F7">
+        <v>815</v>
+      </c>
+      <c r="G7">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>758</v>
+      </c>
+      <c r="C8">
+        <v>827</v>
+      </c>
+      <c r="D8">
+        <v>788</v>
+      </c>
+      <c r="E8">
+        <v>758</v>
+      </c>
+      <c r="F8">
+        <v>816</v>
+      </c>
+      <c r="G8">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>748</v>
+      </c>
+      <c r="C9">
+        <v>797</v>
+      </c>
+      <c r="D9">
+        <v>797</v>
+      </c>
+      <c r="E9">
+        <v>760</v>
+      </c>
+      <c r="F9">
+        <v>789</v>
+      </c>
+      <c r="G9">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>812</v>
+      </c>
+      <c r="C10">
+        <v>804</v>
+      </c>
+      <c r="D10">
+        <v>794</v>
+      </c>
+      <c r="E10">
+        <v>792</v>
+      </c>
+      <c r="F10">
+        <v>827</v>
+      </c>
+      <c r="G10">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>795</v>
+      </c>
+      <c r="C11">
+        <v>825</v>
+      </c>
+      <c r="D11">
+        <v>795</v>
+      </c>
+      <c r="E11">
+        <v>762</v>
+      </c>
+      <c r="F11">
+        <v>796</v>
+      </c>
+      <c r="G11">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>793</v>
+      </c>
+      <c r="C12">
+        <v>830</v>
+      </c>
+      <c r="D12">
+        <v>731</v>
+      </c>
+      <c r="E12">
+        <v>748</v>
+      </c>
+      <c r="F12">
+        <v>796</v>
+      </c>
+      <c r="G12">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>795</v>
+      </c>
+      <c r="C13">
+        <v>805</v>
+      </c>
+      <c r="D13">
+        <v>797</v>
+      </c>
+      <c r="E13">
+        <v>793</v>
+      </c>
+      <c r="F13">
+        <v>795</v>
+      </c>
+      <c r="G13">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>792</v>
+      </c>
+      <c r="C14">
+        <v>828</v>
+      </c>
+      <c r="D14">
+        <v>792</v>
+      </c>
+      <c r="E14">
+        <v>739</v>
+      </c>
+      <c r="F14">
+        <v>802</v>
+      </c>
+      <c r="G14">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>797</v>
+      </c>
+      <c r="C15">
+        <v>803</v>
+      </c>
+      <c r="D15">
+        <v>796</v>
+      </c>
+      <c r="E15">
+        <v>790</v>
+      </c>
+      <c r="F15">
+        <v>789</v>
+      </c>
+      <c r="G15">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>790</v>
+      </c>
+      <c r="C16">
+        <v>827</v>
+      </c>
+      <c r="D16">
+        <v>795</v>
+      </c>
+      <c r="E16">
+        <v>760</v>
+      </c>
+      <c r="F16">
+        <v>826</v>
+      </c>
+      <c r="G16">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>770</v>
+      </c>
+      <c r="C17">
+        <v>822</v>
+      </c>
+      <c r="D17">
+        <v>782</v>
+      </c>
+      <c r="E17">
+        <v>789</v>
+      </c>
+      <c r="F17">
+        <v>797</v>
+      </c>
+      <c r="G17">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>796</v>
+      </c>
+      <c r="C18">
+        <v>828</v>
+      </c>
+      <c r="D18">
+        <v>770</v>
+      </c>
+      <c r="E18">
+        <v>746</v>
+      </c>
+      <c r="F18">
+        <v>812</v>
+      </c>
+      <c r="G18">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>791</v>
+      </c>
+      <c r="C19">
+        <v>796</v>
+      </c>
+      <c r="D19">
+        <v>790</v>
+      </c>
+      <c r="E19">
+        <v>743</v>
+      </c>
+      <c r="F19">
+        <v>830</v>
+      </c>
+      <c r="G19">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>822</v>
+      </c>
+      <c r="C20">
+        <v>826</v>
+      </c>
+      <c r="D20">
+        <v>794</v>
+      </c>
+      <c r="E20">
+        <v>781</v>
+      </c>
+      <c r="F20">
+        <v>791</v>
+      </c>
+      <c r="G20">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>789</v>
+      </c>
+      <c r="C21">
+        <v>801</v>
+      </c>
+      <c r="D21">
+        <v>793</v>
+      </c>
+      <c r="E21">
+        <v>780</v>
+      </c>
+      <c r="F21">
+        <v>815</v>
+      </c>
+      <c r="G21">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>795</v>
+      </c>
+      <c r="C22">
+        <v>798</v>
+      </c>
+      <c r="D22">
+        <v>797</v>
+      </c>
+      <c r="E22">
+        <v>703</v>
+      </c>
+      <c r="F22">
+        <v>797</v>
+      </c>
+      <c r="G22">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>786</v>
+      </c>
+      <c r="C23">
+        <v>823</v>
+      </c>
+      <c r="D23">
+        <v>793</v>
+      </c>
+      <c r="E23">
+        <v>790</v>
+      </c>
+      <c r="F23">
+        <v>777</v>
+      </c>
+      <c r="G23">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>797</v>
+      </c>
+      <c r="C24">
+        <v>763</v>
+      </c>
+      <c r="D24">
+        <v>796</v>
+      </c>
+      <c r="E24">
+        <v>771</v>
+      </c>
+      <c r="F24">
+        <v>823</v>
+      </c>
+      <c r="G24">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>791</v>
+      </c>
+      <c r="C25">
+        <v>827</v>
+      </c>
+      <c r="D25">
+        <v>792</v>
+      </c>
+      <c r="E25">
+        <v>777</v>
+      </c>
+      <c r="F25">
+        <v>826</v>
+      </c>
+      <c r="G25">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>783</v>
+      </c>
+      <c r="C26">
+        <v>824</v>
+      </c>
+      <c r="D26">
+        <v>797</v>
+      </c>
+      <c r="E26">
+        <v>791</v>
+      </c>
+      <c r="F26">
+        <v>796</v>
+      </c>
+      <c r="G26">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>792</v>
+      </c>
+      <c r="C27">
+        <v>755</v>
+      </c>
+      <c r="D27">
+        <v>794</v>
+      </c>
+      <c r="E27">
+        <v>790</v>
+      </c>
+      <c r="F27">
+        <v>825</v>
+      </c>
+      <c r="G27">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>795</v>
+      </c>
+      <c r="C28">
+        <v>792</v>
+      </c>
+      <c r="D28">
+        <v>750</v>
+      </c>
+      <c r="E28">
+        <v>787</v>
+      </c>
+      <c r="F28">
+        <v>783</v>
+      </c>
+      <c r="G28">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>787</v>
+      </c>
+      <c r="C29">
+        <v>826</v>
+      </c>
+      <c r="D29">
+        <v>785</v>
+      </c>
+      <c r="E29">
+        <v>793</v>
+      </c>
+      <c r="F29">
+        <v>789</v>
+      </c>
+      <c r="G29">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>770</v>
+      </c>
+      <c r="C30">
+        <v>818</v>
+      </c>
+      <c r="D30">
+        <v>795</v>
+      </c>
+      <c r="E30">
+        <v>757</v>
+      </c>
+      <c r="F30">
+        <v>824</v>
+      </c>
+      <c r="G30">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>789</v>
+      </c>
+      <c r="C31">
+        <v>786</v>
+      </c>
+      <c r="D31">
+        <v>794</v>
+      </c>
+      <c r="E31">
+        <v>793</v>
+      </c>
+      <c r="F31">
+        <v>793</v>
+      </c>
+      <c r="G31">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="3">
+        <f>AVERAGE(B2:B31)</f>
+        <v>788.33333333333337</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" ref="C32:H32" si="0">AVERAGE(C2:C31)</f>
+        <v>809.83333333333337</v>
+      </c>
+      <c r="D32" s="3">
+        <f>AVERAGE(D2:D31)</f>
+        <v>789.33333333333337</v>
+      </c>
+      <c r="E32" s="3">
+        <f>AVERAGE(E2:E31)</f>
+        <v>767.9</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="0"/>
+        <v>805.23333333333335</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="0"/>
+        <v>643.79999999999995</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="3">
+        <f>_xlfn.STDEV.S(B2:B31)</f>
+        <v>14.732870435334991</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" ref="C33:H33" si="1">_xlfn.STDEV.S(C2:C31)</f>
+        <v>19.800876562507987</v>
+      </c>
+      <c r="D33" s="3">
+        <f>_xlfn.STDEV.S(D2:D31)</f>
+        <v>14.77727363528043</v>
+      </c>
+      <c r="E33" s="3">
+        <f>_xlfn.STDEV.S(E2:E31)</f>
+        <v>24.663738564945913</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="1"/>
+        <v>15.473410638304962</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="1"/>
+        <v>17.718877523411443</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="4">
+        <f>(B32-$B32)/$B32</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" ref="C34:I34" si="2">(C32-$B32)/$B32</f>
+        <v>2.7272727272727271E-2</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2684989429175475E-3</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="2"/>
+        <v>-2.5919661733615297E-2</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" si="2"/>
+        <v>2.1437632135306525E-2</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.18334038054968296</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="3">
+        <f>-($B32-B32)/SQRT(($B33^2+B33^2)/2)</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" ref="C35:G35" si="3">-($B32-C32)/SQRT(($B33^2+C33^2)/2)</f>
+        <v>1.2319630563817963</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="3"/>
+        <v>6.777322845895685E-2</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" si="3"/>
+        <v>-1.0058498932455837</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1186364495676355</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="3"/>
+        <v>-8.870113470425693</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9684,8 +10450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
